--- a/tools/importer/reports/import-homepage.report.xlsx
+++ b/tools/importer/reports/import-homepage.report.xlsx
@@ -40,7 +40,7 @@
     <t>index.report.json</t>
   </si>
   <si>
-    <t>["hero-business","cards","cards","banner","banner","banner","banner"]</t>
+    <t>["hero-business","cards","cards","cards-quiet","banner","banner","banner","banner","carousel","storystack"]</t>
   </si>
   <si>
     <t>index</t>
@@ -52,7 +52,7 @@
     <t>homepage</t>
   </si>
   <si>
-    <t>2026-02-05T17:00:12.385Z</t>
+    <t>2026-02-05T19:47:03.195Z</t>
   </si>
   <si>
     <t>AT&amp;T Business – Fiber Internet, Mobility, IoT, 5G Solutions</t>

--- a/tools/importer/reports/import-homepage.report.xlsx
+++ b/tools/importer/reports/import-homepage.report.xlsx
@@ -52,7 +52,7 @@
     <t>homepage</t>
   </si>
   <si>
-    <t>2026-02-05T19:47:03.195Z</t>
+    <t>2026-02-05T20:07:31.430Z</t>
   </si>
   <si>
     <t>AT&amp;T Business – Fiber Internet, Mobility, IoT, 5G Solutions</t>

--- a/tools/importer/reports/import-homepage.report.xlsx
+++ b/tools/importer/reports/import-homepage.report.xlsx
@@ -52,7 +52,7 @@
     <t>homepage</t>
   </si>
   <si>
-    <t>2026-02-05T20:07:31.430Z</t>
+    <t>2026-02-05T20:45:44.272Z</t>
   </si>
   <si>
     <t>AT&amp;T Business – Fiber Internet, Mobility, IoT, 5G Solutions</t>

--- a/tools/importer/reports/import-homepage.report.xlsx
+++ b/tools/importer/reports/import-homepage.report.xlsx
@@ -40,7 +40,7 @@
     <t>index.report.json</t>
   </si>
   <si>
-    <t>["hero-business","cards","cards","cards-quiet","banner","banner","banner","banner","carousel","storystack"]</t>
+    <t>["hero-business","hero-business","hero-business","hero-business","cards","banner-list","cards-quiet","carousel","storystack"]</t>
   </si>
   <si>
     <t>index</t>
@@ -52,7 +52,7 @@
     <t>homepage</t>
   </si>
   <si>
-    <t>2026-02-05T20:45:44.272Z</t>
+    <t>2026-02-11T16:55:57.052Z</t>
   </si>
   <si>
     <t>AT&amp;T Business – Fiber Internet, Mobility, IoT, 5G Solutions</t>

--- a/tools/importer/reports/import-homepage.report.xlsx
+++ b/tools/importer/reports/import-homepage.report.xlsx
@@ -52,7 +52,7 @@
     <t>homepage</t>
   </si>
   <si>
-    <t>2026-02-11T16:55:57.052Z</t>
+    <t>2026-02-12T23:59:35.915Z</t>
   </si>
   <si>
     <t>AT&amp;T Business – Fiber Internet, Mobility, IoT, 5G Solutions</t>

--- a/tools/importer/reports/import-homepage.report.xlsx
+++ b/tools/importer/reports/import-homepage.report.xlsx
@@ -40,7 +40,7 @@
     <t>index.report.json</t>
   </si>
   <si>
-    <t>["hero-business","cards","cards","cards-quiet","banner","banner","banner","banner","carousel","storystack"]</t>
+    <t>["hero-business","hero-business","hero-business","hero-business","cards","banner-list","cards-quiet","carousel","storystack"]</t>
   </si>
   <si>
     <t>index</t>
@@ -52,7 +52,7 @@
     <t>homepage</t>
   </si>
   <si>
-    <t>2026-02-05T20:45:44.272Z</t>
+    <t>2026-02-12T23:59:35.915Z</t>
   </si>
   <si>
     <t>AT&amp;T Business – Fiber Internet, Mobility, IoT, 5G Solutions</t>

--- a/tools/importer/reports/import-homepage.report.xlsx
+++ b/tools/importer/reports/import-homepage.report.xlsx
@@ -52,7 +52,7 @@
     <t>homepage</t>
   </si>
   <si>
-    <t>2026-02-12T23:59:35.915Z</t>
+    <t>2026-02-13T03:05:14.529Z</t>
   </si>
   <si>
     <t>AT&amp;T Business – Fiber Internet, Mobility, IoT, 5G Solutions</t>
